--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H2">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I2">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J2">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N2">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O2">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P2">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q2">
-        <v>19.09053419654267</v>
+        <v>53.80267004514467</v>
       </c>
       <c r="R2">
-        <v>171.814807768884</v>
+        <v>484.224030406302</v>
       </c>
       <c r="S2">
-        <v>0.01284035978878596</v>
+        <v>0.05237380883718338</v>
       </c>
       <c r="T2">
-        <v>0.01284035978878596</v>
+        <v>0.05237380883718337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H3">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I3">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J3">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.597088</v>
       </c>
       <c r="O3">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P3">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q3">
-        <v>14.87719390130133</v>
+        <v>24.77653361012267</v>
       </c>
       <c r="R3">
-        <v>133.894745111712</v>
+        <v>222.988802491104</v>
       </c>
       <c r="S3">
-        <v>0.01000645243205593</v>
+        <v>0.02411853229320758</v>
       </c>
       <c r="T3">
-        <v>0.01000645243205594</v>
+        <v>0.02411853229320758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H4">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I4">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J4">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N4">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O4">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P4">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q4">
-        <v>7.083645887823334</v>
+        <v>13.04552704379956</v>
       </c>
       <c r="R4">
-        <v>63.75281299041001</v>
+        <v>117.409743394196</v>
       </c>
       <c r="S4">
-        <v>0.004764484894952712</v>
+        <v>0.01269907123566486</v>
       </c>
       <c r="T4">
-        <v>0.004764484894952713</v>
+        <v>0.01269907123566486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H5">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I5">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J5">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N5">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O5">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P5">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q5">
-        <v>2.006582899164778</v>
+        <v>1.639935973939889</v>
       </c>
       <c r="R5">
-        <v>18.059246092483</v>
+        <v>14.759423765459</v>
       </c>
       <c r="S5">
-        <v>0.001349634646471396</v>
+        <v>0.001596383471903527</v>
       </c>
       <c r="T5">
-        <v>0.001349634646471396</v>
+        <v>0.001596383471903526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H6">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I6">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J6">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N6">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O6">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P6">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q6">
-        <v>2.056768331573667</v>
+        <v>3.282136538631557</v>
       </c>
       <c r="R6">
-        <v>18.510914984163</v>
+        <v>29.53922884768401</v>
       </c>
       <c r="S6">
-        <v>0.001383389543094595</v>
+        <v>0.003194971392824705</v>
       </c>
       <c r="T6">
-        <v>0.001383389543094595</v>
+        <v>0.003194971392824704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H7">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I7">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J7">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N7">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O7">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P7">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q7">
-        <v>10.58615774419778</v>
+        <v>9.740453929505334</v>
       </c>
       <c r="R7">
-        <v>95.27541969777999</v>
+        <v>87.664085365548</v>
       </c>
       <c r="S7">
-        <v>0.007120286568039537</v>
+        <v>0.009481772403920709</v>
       </c>
       <c r="T7">
-        <v>0.00712028656803954</v>
+        <v>0.009481772403920707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>37.675054</v>
       </c>
       <c r="I8">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J8">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N8">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O8">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P8">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q8">
-        <v>223.4453702996294</v>
+        <v>378.1269101894306</v>
       </c>
       <c r="R8">
-        <v>2011.008332696664</v>
+        <v>3403.142191704876</v>
       </c>
       <c r="S8">
-        <v>0.1502901342753076</v>
+        <v>0.3680848272741666</v>
       </c>
       <c r="T8">
-        <v>0.1502901342753076</v>
+        <v>0.3680848272741666</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>37.675054</v>
       </c>
       <c r="I9">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J9">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>41.597088</v>
       </c>
       <c r="O9">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P9">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q9">
         <v>174.1302818491947</v>
@@ -1013,10 +1013,10 @@
         <v>1567.172536642752</v>
       </c>
       <c r="S9">
-        <v>0.1171206340297848</v>
+        <v>0.169505827251367</v>
       </c>
       <c r="T9">
-        <v>0.1171206340297848</v>
+        <v>0.1695058272513669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>37.675054</v>
       </c>
       <c r="I10">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J10">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N10">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O10">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P10">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q10">
-        <v>82.91061225320668</v>
+        <v>91.68438720096088</v>
       </c>
       <c r="R10">
-        <v>746.1955102788601</v>
+        <v>825.159484808648</v>
       </c>
       <c r="S10">
-        <v>0.05576596656119244</v>
+        <v>0.0892494845439509</v>
       </c>
       <c r="T10">
-        <v>0.05576596656119245</v>
+        <v>0.08924948454395089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>37.675054</v>
       </c>
       <c r="I11">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J11">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N11">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O11">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P11">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q11">
-        <v>23.48607191002422</v>
+        <v>11.52552321686022</v>
       </c>
       <c r="R11">
-        <v>211.374647190218</v>
+        <v>103.729708951742</v>
       </c>
       <c r="S11">
-        <v>0.01579681376357846</v>
+        <v>0.01121943481990501</v>
       </c>
       <c r="T11">
-        <v>0.01579681376357846</v>
+        <v>0.01121943481990501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>37.675054</v>
       </c>
       <c r="I12">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J12">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N12">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O12">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P12">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q12">
-        <v>24.07346786305533</v>
+        <v>23.06696205097689</v>
       </c>
       <c r="R12">
-        <v>216.661210767498</v>
+        <v>207.602658458792</v>
       </c>
       <c r="S12">
-        <v>0.01619189832735993</v>
+        <v>0.02245436257900831</v>
       </c>
       <c r="T12">
-        <v>0.01619189832735993</v>
+        <v>0.0224543625790083</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>37.675054</v>
       </c>
       <c r="I13">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J13">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N13">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O13">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P13">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q13">
-        <v>123.9058013175422</v>
+        <v>68.45622615226934</v>
       </c>
       <c r="R13">
-        <v>1115.15221185788</v>
+        <v>616.106035370424</v>
       </c>
       <c r="S13">
-        <v>0.08333947350321939</v>
+        <v>0.0666382040000169</v>
       </c>
       <c r="T13">
-        <v>0.08333947350321941</v>
+        <v>0.06663820400001688</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H14">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I14">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J14">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N14">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O14">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P14">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q14">
-        <v>4.911882665750667</v>
+        <v>6.838582226553998</v>
       </c>
       <c r="R14">
-        <v>44.206943991756</v>
+        <v>61.54724003898599</v>
       </c>
       <c r="S14">
-        <v>0.00330374938800622</v>
+        <v>0.006656966986031966</v>
       </c>
       <c r="T14">
-        <v>0.00330374938800622</v>
+        <v>0.006656966986031966</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H15">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I15">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J15">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.597088</v>
       </c>
       <c r="O15">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P15">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q15">
-        <v>3.827814878645333</v>
+        <v>3.149218472608</v>
       </c>
       <c r="R15">
-        <v>34.45033390780799</v>
+        <v>28.342966253472</v>
       </c>
       <c r="S15">
-        <v>0.002574601618826119</v>
+        <v>0.0030655832904297</v>
       </c>
       <c r="T15">
-        <v>0.002574601618826119</v>
+        <v>0.003065583290429699</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H16">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I16">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J16">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N16">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O16">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P16">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q16">
-        <v>1.822580609243333</v>
+        <v>1.658150223825333</v>
       </c>
       <c r="R16">
-        <v>16.40322548319</v>
+        <v>14.923352014428</v>
       </c>
       <c r="S16">
-        <v>0.001225874065430152</v>
+        <v>0.001614113997931556</v>
       </c>
       <c r="T16">
-        <v>0.001225874065430153</v>
+        <v>0.001614113997931556</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H17">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I17">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J17">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N17">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O17">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P17">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q17">
-        <v>0.5162820305774444</v>
+        <v>0.2084438745263333</v>
       </c>
       <c r="R17">
-        <v>4.646538275196999</v>
+        <v>1.875994870737</v>
       </c>
       <c r="S17">
-        <v>0.0003472530918647603</v>
+        <v>0.0002029081387329625</v>
       </c>
       <c r="T17">
-        <v>0.0003472530918647604</v>
+        <v>0.0002029081387329625</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H18">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I18">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J18">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N18">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O18">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P18">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q18">
-        <v>0.5291944484796666</v>
+        <v>0.4171755896013334</v>
       </c>
       <c r="R18">
-        <v>4.762750036317</v>
+        <v>3.754580306412</v>
       </c>
       <c r="S18">
-        <v>0.0003559380291169468</v>
+        <v>0.0004060964737063498</v>
       </c>
       <c r="T18">
-        <v>0.000355938029116947</v>
+        <v>0.0004060964737063496</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H19">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I19">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J19">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N19">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O19">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P19">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q19">
-        <v>2.723756401224444</v>
+        <v>1.238059283396</v>
       </c>
       <c r="R19">
-        <v>24.51380761102</v>
+        <v>11.142533550564</v>
       </c>
       <c r="S19">
-        <v>0.001832008041716536</v>
+        <v>0.00120517959765333</v>
       </c>
       <c r="T19">
-        <v>0.001832008041716537</v>
+        <v>0.00120517959765333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H20">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I20">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J20">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N20">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O20">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P20">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q20">
-        <v>247.5567844579947</v>
+        <v>73.18834329267067</v>
       </c>
       <c r="R20">
-        <v>2228.011060121952</v>
+        <v>658.695089634036</v>
       </c>
       <c r="S20">
-        <v>0.1665075554130518</v>
+        <v>0.07124464822106728</v>
       </c>
       <c r="T20">
-        <v>0.1665075554130518</v>
+        <v>0.07124464822106727</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H21">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I21">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J21">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>41.597088</v>
       </c>
       <c r="O21">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P21">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q21">
-        <v>192.9202318828373</v>
+        <v>33.70378172567467</v>
       </c>
       <c r="R21">
-        <v>1736.282086945536</v>
+        <v>303.334035531072</v>
       </c>
       <c r="S21">
-        <v>0.1297588198637347</v>
+        <v>0.03280869554818567</v>
       </c>
       <c r="T21">
-        <v>0.1297588198637347</v>
+        <v>0.03280869554818566</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H22">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I22">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J22">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N22">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O22">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P22">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q22">
-        <v>91.85728278605333</v>
+        <v>17.74596894381422</v>
       </c>
       <c r="R22">
-        <v>826.71554507448</v>
+        <v>159.713720494328</v>
       </c>
       <c r="S22">
-        <v>0.06178352832089874</v>
+        <v>0.0172746814296402</v>
       </c>
       <c r="T22">
-        <v>0.06178352832089875</v>
+        <v>0.01727468142964019</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H23">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I23">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J23">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N23">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O23">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P23">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q23">
-        <v>26.02039341338044</v>
+        <v>2.230822316773556</v>
       </c>
       <c r="R23">
-        <v>234.183540720424</v>
+        <v>20.077400850962</v>
       </c>
       <c r="S23">
-        <v>0.01750140723322815</v>
+        <v>0.002171577385850658</v>
       </c>
       <c r="T23">
-        <v>0.01750140723322816</v>
+        <v>0.002171577385850657</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H24">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I24">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J24">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N24">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O24">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P24">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q24">
-        <v>26.67117375016267</v>
+        <v>4.464725180390223</v>
       </c>
       <c r="R24">
-        <v>240.040563751464</v>
+        <v>40.182526623512</v>
       </c>
       <c r="S24">
-        <v>0.01793912435427468</v>
+        <v>0.004346153507104964</v>
       </c>
       <c r="T24">
-        <v>0.01793912435427469</v>
+        <v>0.004346153507104961</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H25">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I25">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J25">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N25">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O25">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P25">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q25">
-        <v>137.2761570702044</v>
+        <v>13.25004289602933</v>
       </c>
       <c r="R25">
-        <v>1235.48541363184</v>
+        <v>119.250386064264</v>
       </c>
       <c r="S25">
-        <v>0.09233242134851009</v>
+        <v>0.01289815567031965</v>
       </c>
       <c r="T25">
-        <v>0.09233242134851012</v>
+        <v>0.01289815567031965</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H26">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I26">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J26">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N26">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O26">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P26">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q26">
-        <v>1.503205445420001</v>
+        <v>4.762184202343333</v>
       </c>
       <c r="R26">
-        <v>13.52884900878</v>
+        <v>42.85965782109</v>
       </c>
       <c r="S26">
-        <v>0.001011061217928131</v>
+        <v>0.00463571277878415</v>
       </c>
       <c r="T26">
-        <v>0.001011061217928131</v>
+        <v>0.004635712778784149</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H27">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I27">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J27">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>41.597088</v>
       </c>
       <c r="O27">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P27">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q27">
-        <v>1.17144332656</v>
+        <v>2.193021588853334</v>
       </c>
       <c r="R27">
-        <v>10.54298993904</v>
+        <v>19.73719429968</v>
       </c>
       <c r="S27">
-        <v>0.000787916861327368</v>
+        <v>0.00213478054851268</v>
       </c>
       <c r="T27">
-        <v>0.0007879168613273681</v>
+        <v>0.002134780548512679</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H28">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I28">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J28">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N28">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O28">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P28">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q28">
-        <v>0.5577725045500002</v>
+        <v>1.154686240424444</v>
       </c>
       <c r="R28">
-        <v>5.019952540950001</v>
+        <v>10.39217616382</v>
       </c>
       <c r="S28">
-        <v>0.0003751597291610261</v>
+        <v>0.001124020729309015</v>
       </c>
       <c r="T28">
-        <v>0.0003751597291610262</v>
+        <v>0.001124020729309015</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H29">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I29">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J29">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N29">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O29">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P29">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q29">
-        <v>0.1580001014983334</v>
+        <v>0.1451540821561111</v>
       </c>
       <c r="R29">
-        <v>1.422000913485</v>
+        <v>1.306386739405</v>
       </c>
       <c r="S29">
-        <v>0.0001062714185478746</v>
+        <v>0.0001412991612572772</v>
       </c>
       <c r="T29">
-        <v>0.0001062714185478746</v>
+        <v>0.0001412991612572772</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H30">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I30">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J30">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N30">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O30">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P30">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q30">
-        <v>0.161951746565</v>
+        <v>0.2905086078644445</v>
       </c>
       <c r="R30">
-        <v>1.457565719085</v>
+        <v>2.61457747078</v>
       </c>
       <c r="S30">
-        <v>0.0001089293087824376</v>
+        <v>0.0002827934427990669</v>
       </c>
       <c r="T30">
-        <v>0.0001089293087824376</v>
+        <v>0.0002827934427990667</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H31">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I31">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J31">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N31">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O31">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P31">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q31">
-        <v>0.8335633672333335</v>
+        <v>0.8621474694066666</v>
       </c>
       <c r="R31">
-        <v>7.502070305100001</v>
+        <v>7.759327224659999</v>
       </c>
       <c r="S31">
-        <v>0.0005606576239216134</v>
+        <v>0.0008392510392937463</v>
       </c>
       <c r="T31">
-        <v>0.0005606576239216135</v>
+        <v>0.0008392510392937459</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H32">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I32">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J32">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N32">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O32">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P32">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q32">
-        <v>13.05405422496</v>
+        <v>3.292032897329999</v>
       </c>
       <c r="R32">
-        <v>117.48648802464</v>
+        <v>29.62829607597</v>
       </c>
       <c r="S32">
-        <v>0.008780202336148559</v>
+        <v>0.003204604929565941</v>
       </c>
       <c r="T32">
-        <v>0.008780202336148558</v>
+        <v>0.00320460492956594</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H33">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I33">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J33">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>41.597088</v>
       </c>
       <c r="O33">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P33">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q33">
-        <v>10.17298384128</v>
+        <v>1.51600587216</v>
       </c>
       <c r="R33">
-        <v>91.55685457151999</v>
+        <v>13.64405284944</v>
       </c>
       <c r="S33">
-        <v>0.006842384361941922</v>
+        <v>0.001475744636426655</v>
       </c>
       <c r="T33">
-        <v>0.006842384361941922</v>
+        <v>0.001475744636426655</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H34">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I34">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J34">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N34">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O34">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P34">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q34">
-        <v>4.8437773704</v>
+        <v>0.7982188273399999</v>
       </c>
       <c r="R34">
-        <v>43.5939963336</v>
+        <v>7.18396944606</v>
       </c>
       <c r="S34">
-        <v>0.003257941529157384</v>
+        <v>0.0007770201783344124</v>
       </c>
       <c r="T34">
-        <v>0.003257941529157384</v>
+        <v>0.0007770201783344121</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H35">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I35">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J35">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N35">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O35">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P35">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q35">
-        <v>1.37209580952</v>
+        <v>0.100343034485</v>
       </c>
       <c r="R35">
-        <v>12.34886228568</v>
+        <v>0.903087310365</v>
       </c>
       <c r="S35">
-        <v>0.000922876420195356</v>
+        <v>9.767818031801473E-05</v>
       </c>
       <c r="T35">
-        <v>0.000922876420195356</v>
+        <v>9.767818031801471E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H36">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I36">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J36">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N36">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O36">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P36">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q36">
-        <v>1.40641246872</v>
+        <v>0.20082463286</v>
       </c>
       <c r="R36">
-        <v>12.65771221848</v>
+        <v>1.80742169574</v>
       </c>
       <c r="S36">
-        <v>0.0009459579246907594</v>
+        <v>0.0001954912446237667</v>
       </c>
       <c r="T36">
-        <v>0.0009459579246907596</v>
+        <v>0.0001954912446237666</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H37">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I37">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J37">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N37">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O37">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P37">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q37">
-        <v>7.2387852432</v>
+        <v>0.59599077042</v>
       </c>
       <c r="R37">
-        <v>65.14906718879999</v>
+        <v>5.36391693378</v>
       </c>
       <c r="S37">
-        <v>0.004868832165695795</v>
+        <v>0.0005801627810016022</v>
       </c>
       <c r="T37">
-        <v>0.004868832165695796</v>
+        <v>0.0005801627810016021</v>
       </c>
     </row>
   </sheetData>
